--- a/BookFile/2-11 梯度下降法.xlsx
+++ b/BookFile/2-11 梯度下降法.xlsx
@@ -1,15 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23312"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl\Ubuntu\home\jichao\gitRes\DeepLearning_Math\BookFile\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6DEF98E-58A7-4F27-B6A7-394556FACCAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19420" windowHeight="11020"/>
+    <workbookView xWindow="26460" yWindow="0" windowWidth="18855" windowHeight="21600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="梯度下降法" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -158,7 +164,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.00_ "/>
   </numFmts>
@@ -297,7 +303,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -336,6 +342,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -609,28 +624,28 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:I37"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B1:J37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5:H5"/>
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="2" customWidth="1"/>
-    <col min="2" max="2" width="3.7265625" customWidth="1"/>
-    <col min="3" max="9" width="7.7265625" customWidth="1"/>
+    <col min="2" max="2" width="3.7109375" customWidth="1"/>
+    <col min="3" max="10" width="7.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="18.75" customHeight="1">
+    <row r="1" spans="2:10" ht="18.75" customHeight="1">
       <c r="B1" t="s">
         <v>10</v>
       </c>
@@ -638,8 +653,8 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="13.5" customHeight="1"/>
-    <row r="3" spans="2:9" ht="13.5" customHeight="1">
+    <row r="2" spans="2:10" ht="13.5" customHeight="1"/>
+    <row r="3" spans="2:10" ht="13.5" customHeight="1">
       <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
@@ -647,8 +662,8 @@
         <v>0.1</v>
       </c>
     </row>
-    <row r="4" spans="2:9" ht="13.5" customHeight="1"/>
-    <row r="5" spans="2:9">
+    <row r="4" spans="2:10" ht="13.5" customHeight="1"/>
+    <row r="5" spans="2:10">
       <c r="B5" s="1" t="s">
         <v>8</v>
       </c>
@@ -667,8 +682,9 @@
       <c r="I5" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" ht="16.5">
+      <c r="J5" s="13"/>
+    </row>
+    <row r="6" spans="2:10" ht="18">
       <c r="B6" s="2" t="s">
         <v>4</v>
       </c>
@@ -693,8 +709,9 @@
       <c r="I6" s="10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="2:9">
+      <c r="J6" s="14"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="4">
         <v>0</v>
       </c>
@@ -724,8 +741,9 @@
         <f>C7^2+D7^2</f>
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="2:9">
+      <c r="J7" s="15"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="5">
         <v>1</v>
       </c>
@@ -757,8 +775,9 @@
         <f t="shared" ref="I8:I37" si="2">C8^2+D8^2</f>
         <v>8.32</v>
       </c>
-    </row>
-    <row r="9" spans="2:9">
+      <c r="J8" s="15"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="5">
         <v>2</v>
       </c>
@@ -790,8 +809,9 @@
         <f t="shared" si="2"/>
         <v>5.3247999999999998</v>
       </c>
-    </row>
-    <row r="10" spans="2:9">
+      <c r="J9" s="15"/>
+    </row>
+    <row r="10" spans="2:10">
       <c r="B10" s="5">
         <v>3</v>
       </c>
@@ -823,8 +843,9 @@
         <f t="shared" si="2"/>
         <v>3.4078720000000002</v>
       </c>
-    </row>
-    <row r="11" spans="2:9">
+      <c r="J10" s="15"/>
+    </row>
+    <row r="11" spans="2:10">
       <c r="B11" s="5">
         <v>4</v>
       </c>
@@ -856,8 +877,9 @@
         <f t="shared" si="2"/>
         <v>2.1810380800000004</v>
       </c>
-    </row>
-    <row r="12" spans="2:9">
+      <c r="J11" s="15"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="5">
         <v>5</v>
       </c>
@@ -889,8 +911,9 @@
         <f t="shared" si="2"/>
         <v>1.3958643712000003</v>
       </c>
-    </row>
-    <row r="13" spans="2:9">
+      <c r="J12" s="15"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="5">
         <v>6</v>
       </c>
@@ -922,8 +945,9 @@
         <f t="shared" si="2"/>
         <v>0.89335319756800025</v>
       </c>
-    </row>
-    <row r="14" spans="2:9">
+      <c r="J13" s="15"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="5">
         <v>7</v>
       </c>
@@ -955,8 +979,9 @@
         <f t="shared" si="2"/>
         <v>0.57174604644352023</v>
       </c>
-    </row>
-    <row r="15" spans="2:9">
+      <c r="J14" s="15"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="5">
         <v>8</v>
       </c>
@@ -988,8 +1013,9 @@
         <f t="shared" si="2"/>
         <v>0.36591746972385292</v>
       </c>
-    </row>
-    <row r="16" spans="2:9">
+      <c r="J15" s="15"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="5">
         <v>9</v>
       </c>
@@ -1021,8 +1047,9 @@
         <f t="shared" si="2"/>
         <v>0.23418718062326588</v>
       </c>
-    </row>
-    <row r="17" spans="2:9">
+      <c r="J16" s="15"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="5">
         <v>10</v>
       </c>
@@ -1054,8 +1081,9 @@
         <f t="shared" si="2"/>
         <v>0.14987979559889017</v>
       </c>
-    </row>
-    <row r="18" spans="2:9">
+      <c r="J17" s="15"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="5">
         <v>11</v>
       </c>
@@ -1087,8 +1115,9 @@
         <f t="shared" si="2"/>
         <v>9.5923069183289716E-2</v>
       </c>
-    </row>
-    <row r="19" spans="2:9">
+      <c r="J18" s="15"/>
+    </row>
+    <row r="19" spans="2:10">
       <c r="B19" s="5">
         <v>12</v>
       </c>
@@ -1120,8 +1149,9 @@
         <f t="shared" si="2"/>
         <v>6.1390764277305415E-2</v>
       </c>
-    </row>
-    <row r="20" spans="2:9">
+      <c r="J19" s="15"/>
+    </row>
+    <row r="20" spans="2:10">
       <c r="B20" s="5">
         <v>13</v>
       </c>
@@ -1153,8 +1183,9 @@
         <f t="shared" si="2"/>
         <v>3.9290089137475462E-2</v>
       </c>
-    </row>
-    <row r="21" spans="2:9">
+      <c r="J20" s="15"/>
+    </row>
+    <row r="21" spans="2:10">
       <c r="B21" s="5">
         <v>14</v>
       </c>
@@ -1186,8 +1217,9 @@
         <f t="shared" si="2"/>
         <v>2.5145657047984295E-2</v>
       </c>
-    </row>
-    <row r="22" spans="2:9">
+      <c r="J21" s="15"/>
+    </row>
+    <row r="22" spans="2:10">
       <c r="B22" s="5">
         <v>15</v>
       </c>
@@ -1219,8 +1251,9 @@
         <f t="shared" si="2"/>
         <v>1.6093220510709948E-2</v>
       </c>
-    </row>
-    <row r="23" spans="2:9">
+      <c r="J22" s="15"/>
+    </row>
+    <row r="23" spans="2:10">
       <c r="B23" s="5">
         <v>16</v>
       </c>
@@ -1252,8 +1285,9 @@
         <f t="shared" si="2"/>
         <v>1.0299661126854365E-2</v>
       </c>
-    </row>
-    <row r="24" spans="2:9">
+      <c r="J23" s="15"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="5">
         <v>17</v>
       </c>
@@ -1285,8 +1319,9 @@
         <f t="shared" si="2"/>
         <v>6.5917831211867953E-3</v>
       </c>
-    </row>
-    <row r="25" spans="2:9">
+      <c r="J24" s="15"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="5">
         <v>18</v>
       </c>
@@ -1318,8 +1353,9 @@
         <f t="shared" si="2"/>
         <v>4.2187411975595484E-3</v>
       </c>
-    </row>
-    <row r="26" spans="2:9">
+      <c r="J25" s="15"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="5">
         <v>19</v>
       </c>
@@ -1351,8 +1387,9 @@
         <f t="shared" si="2"/>
         <v>2.699994366438111E-3</v>
       </c>
-    </row>
-    <row r="27" spans="2:9">
+      <c r="J26" s="15"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="5">
         <v>20</v>
       </c>
@@ -1384,8 +1421,9 @@
         <f t="shared" si="2"/>
         <v>1.7279963945203911E-3</v>
       </c>
-    </row>
-    <row r="28" spans="2:9">
+      <c r="J27" s="15"/>
+    </row>
+    <row r="28" spans="2:10">
       <c r="B28" s="5">
         <v>21</v>
       </c>
@@ -1417,8 +1455,9 @@
         <f t="shared" si="2"/>
         <v>1.1059176924930502E-3</v>
       </c>
-    </row>
-    <row r="29" spans="2:9">
+      <c r="J28" s="15"/>
+    </row>
+    <row r="29" spans="2:10">
       <c r="B29" s="5">
         <v>22</v>
       </c>
@@ -1450,8 +1489,9 @@
         <f t="shared" si="2"/>
         <v>7.0778732319555211E-4</v>
       </c>
-    </row>
-    <row r="30" spans="2:9">
+      <c r="J29" s="15"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="5">
         <v>23</v>
       </c>
@@ -1483,8 +1523,9 @@
         <f t="shared" si="2"/>
         <v>4.5298388684515342E-4</v>
       </c>
-    </row>
-    <row r="31" spans="2:9">
+      <c r="J30" s="15"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="5">
         <v>24</v>
       </c>
@@ -1516,8 +1557,9 @@
         <f t="shared" si="2"/>
         <v>2.8990968758089823E-4</v>
       </c>
-    </row>
-    <row r="32" spans="2:9">
+      <c r="J31" s="15"/>
+    </row>
+    <row r="32" spans="2:10">
       <c r="B32" s="5">
         <v>25</v>
       </c>
@@ -1549,8 +1591,9 @@
         <f t="shared" si="2"/>
         <v>1.8554220005177486E-4</v>
       </c>
-    </row>
-    <row r="33" spans="2:9">
+      <c r="J32" s="15"/>
+    </row>
+    <row r="33" spans="2:10">
       <c r="B33" s="5">
         <v>26</v>
       </c>
@@ -1582,8 +1625,9 @@
         <f t="shared" si="2"/>
         <v>1.1874700803313592E-4</v>
       </c>
-    </row>
-    <row r="34" spans="2:9">
+      <c r="J33" s="15"/>
+    </row>
+    <row r="34" spans="2:10">
       <c r="B34" s="5">
         <v>27</v>
       </c>
@@ -1615,8 +1659,9 @@
         <f t="shared" si="2"/>
         <v>7.5998085141206991E-5</v>
       </c>
-    </row>
-    <row r="35" spans="2:9">
+      <c r="J34" s="15"/>
+    </row>
+    <row r="35" spans="2:10">
       <c r="B35" s="5">
         <v>28</v>
       </c>
@@ -1648,8 +1693,9 @@
         <f t="shared" si="2"/>
         <v>4.8638774490372474E-5</v>
       </c>
-    </row>
-    <row r="36" spans="2:9">
+      <c r="J35" s="15"/>
+    </row>
+    <row r="36" spans="2:10">
       <c r="B36" s="5">
         <v>29</v>
       </c>
@@ -1681,8 +1727,9 @@
         <f t="shared" si="2"/>
         <v>3.1128815673838386E-5</v>
       </c>
-    </row>
-    <row r="37" spans="2:9">
+      <c r="J36" s="15"/>
+    </row>
+    <row r="37" spans="2:10">
       <c r="B37" s="6">
         <v>30</v>
       </c>
@@ -1714,6 +1761,7 @@
         <f t="shared" si="2"/>
         <v>1.9922442031256565E-5</v>
       </c>
+      <c r="J37" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="3">
